--- a/PROPERTIES/BOARDER BUSINESS CENTER/BOADER BUSINESS CENTRE2025.xlsx
+++ b/PROPERTIES/BOARDER BUSINESS CENTER/BOADER BUSINESS CENTRE2025.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t xml:space="preserve">TEL: 0703759351 / 0723575686</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t xml:space="preserve">TO CALLED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TG92AKA8M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TGA6CR4HYM</t>
   </si>
   <si>
     <t xml:space="preserve">TG64SLDETY</t>
@@ -426,16 +432,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="92">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -583,10 +585,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -664,6 +662,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="172" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1067,638 +1069,638 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="16.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="23.88"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="2" width="8.54"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="11" style="1" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="34.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="10" t="s">
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="6" t="s">
+      <c r="I5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11" t="n">
+      <c r="C6" s="10" t="n">
         <v>723438116</v>
       </c>
-      <c r="D6" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E6" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="12" t="n">
+      <c r="D6" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E6" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="11" t="n">
         <v>40000</v>
       </c>
-      <c r="H6" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="J6" s="3" t="s">
+      <c r="H6" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11" t="n">
+      <c r="C7" s="10" t="n">
         <v>720214783</v>
       </c>
-      <c r="D7" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E7" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="12" t="n">
+      <c r="D7" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11" t="n">
         <v>40000</v>
       </c>
-      <c r="H7" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="3" t="s">
+      <c r="H7" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="13" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="16" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16" t="n">
+      <c r="C8" s="14"/>
+      <c r="D8" s="15" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15" t="n">
         <v>40000</v>
       </c>
-      <c r="H8" s="16" t="n">
-        <v>20000</v>
-      </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18" t="s">
+      <c r="H8" s="15" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="11" t="n">
+      <c r="C9" s="10" t="n">
         <v>725998678</v>
       </c>
-      <c r="D9" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E9" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="12" t="n">
+      <c r="D9" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11" t="n">
         <v>40000</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="3" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+      <c r="A10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E10" s="19" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="3"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E10" s="18" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F10" s="19"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+      <c r="A11" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E11" s="21" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="12" t="n">
+      <c r="D11" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E11" s="20" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F11" s="21"/>
+      <c r="G11" s="11" t="n">
         <v>40000</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="3" t="s">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+      <c r="A12" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E12" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="3" t="s">
+      <c r="C12" s="10"/>
+      <c r="D12" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E12" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I12" s="7"/>
+      <c r="J12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+      <c r="A13" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E13" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12" t="n">
+      <c r="C13" s="10"/>
+      <c r="D13" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E13" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="H13" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="I13" s="8"/>
-      <c r="J13" s="3" t="s">
+      <c r="H13" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+      <c r="A14" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E14" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H14" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="I14" s="8"/>
-      <c r="J14" s="24" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H14" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I14" s="7"/>
+      <c r="J14" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+      <c r="A15" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E15" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H15" s="12" t="n">
-        <v>20000</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="24" t="s">
+      <c r="C15" s="10"/>
+      <c r="D15" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E15" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H15" s="11" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="n">
+      <c r="A16" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="27"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="n">
+      <c r="A17" s="23" t="n">
         <v>12</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+      <c r="A18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="28"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="27"/>
     </row>
     <row r="19" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="n">
+      <c r="A19" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="24" t="n">
+      <c r="C19" s="23" t="n">
         <v>790381810</v>
       </c>
-      <c r="D19" s="29" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="30" t="s">
+      <c r="D19" s="28" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="31" t="n">
+      <c r="A20" s="30" t="n">
         <v>15</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="32" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="30" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="31" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E20" s="31"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="29" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+      <c r="A21" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="10" t="n">
         <v>707608598</v>
       </c>
-      <c r="D21" s="12" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12" t="n">
-        <v>15000</v>
-      </c>
-      <c r="I21" s="8"/>
-      <c r="J21" s="3" t="s">
+      <c r="D21" s="11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+      <c r="A22" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="25" t="n">
+      <c r="C22" s="24" t="n">
         <v>707608598</v>
       </c>
-      <c r="D22" s="12" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="28" t="s">
+      <c r="D22" s="11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="27" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+      <c r="A23" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="33" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="1" t="n">
         <v>115169443</v>
       </c>
-      <c r="D23" s="12" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12" t="n">
+      <c r="D23" s="11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11" t="n">
         <v>30000</v>
       </c>
-      <c r="I23" s="8"/>
-      <c r="J23" s="28" t="s">
+      <c r="I23" s="7"/>
+      <c r="J23" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+      <c r="A24" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="33" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="1" t="n">
         <v>115169443</v>
       </c>
-      <c r="D24" s="12" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E24" s="12"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12" t="n">
+      <c r="D24" s="11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11" t="n">
         <v>30000</v>
       </c>
-      <c r="I24" s="8"/>
-      <c r="J24" s="28" t="s">
+      <c r="I24" s="7"/>
+      <c r="J24" s="27" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+      <c r="A25" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="11" t="n">
+      <c r="C25" s="10" t="n">
         <v>702756240</v>
       </c>
-      <c r="D25" s="12" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="12" t="n">
+      <c r="D25" s="11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11" t="n">
         <v>30000</v>
       </c>
-      <c r="H25" s="12" t="n">
-        <v>15000</v>
-      </c>
-      <c r="I25" s="8"/>
-      <c r="J25" s="3" t="s">
+      <c r="H25" s="11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="28"/>
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="27"/>
     </row>
     <row r="27" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="36"/>
+      <c r="A27" s="23"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="35"/>
     </row>
     <row r="28" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24"/>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="37"/>
+      <c r="A28" s="23"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="36"/>
     </row>
     <row r="29" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="40"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="38"/>
     </row>
     <row r="30" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="41" t="n">
+      <c r="E30" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="42" t="n">
+      <c r="C32" s="40" t="n">
         <v>342800</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3" t="n">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2" t="n">
         <f aca="false">SUM(C30:C33)</f>
         <v>342800</v>
       </c>
-      <c r="F34" s="43"/>
+      <c r="F34" s="41"/>
     </row>
     <row r="35" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G36" s="43"/>
-      <c r="H36" s="44"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="42"/>
     </row>
     <row r="37" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1729,715 +1731,729 @@
   <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J38" activeCellId="0" sqref="J38"/>
+      <selection pane="topLeft" activeCell="J41" activeCellId="0" sqref="J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="17.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="25.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="45" width="17.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="45" width="22.88"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="45" width="14.67"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="45" width="12.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="45" width="39.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="45" width="18.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="45" width="17.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="45" width="27.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="45" width="24.56"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="12" style="45" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="43" width="17.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="43" width="25.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="43" width="17.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="43" width="22.88"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="5" min="5" style="43" width="14.67"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="6" min="6" style="43" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="43" width="39.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="43" width="18.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="43" width="17.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="43" width="27.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="43" width="24.56"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="12" style="43" width="8.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46"/>
-      <c r="B1" s="46"/>
-      <c r="C1" s="47" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="47" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46" t="s">
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="48" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
     </row>
     <row r="4" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="47"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
+      <c r="A4" s="45"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
     </row>
     <row r="5" customFormat="false" ht="16.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="47" t="s">
+      <c r="A5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="47" t="s">
+      <c r="C5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="50" t="s">
+      <c r="E5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="52" t="s">
+      <c r="F5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="49" t="s">
+      <c r="I5" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="J5" s="47" t="s">
+      <c r="J5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="K5" s="54" t="s">
+      <c r="K5" s="52" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="46" t="n">
+      <c r="A6" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="56" t="n">
+      <c r="C6" s="54" t="n">
         <v>723438116</v>
       </c>
-      <c r="D6" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E6" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="59" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H6" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="J6" s="55"/>
+      <c r="D6" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E6" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H6" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="46" t="n">
+      <c r="A7" s="44" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="B7" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="56" t="n">
+      <c r="C7" s="54" t="n">
         <v>720214783</v>
       </c>
-      <c r="D7" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="I7" s="51"/>
-      <c r="J7" s="55" t="s">
+      <c r="D7" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I7" s="49"/>
+      <c r="J7" s="53" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="46" t="n">
+      <c r="A8" s="44" t="n">
         <v>3</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="56" t="n">
+      <c r="C8" s="54" t="n">
         <v>746341384</v>
       </c>
-      <c r="D8" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E8" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="59" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H8" s="57"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="55"/>
+      <c r="D8" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E8" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H8" s="55"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="53"/>
     </row>
     <row r="9" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="46" t="n">
+      <c r="A9" s="44" t="n">
         <v>4</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="56" t="n">
+      <c r="C9" s="54" t="n">
         <v>725998678</v>
       </c>
-      <c r="D9" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="55" t="s">
+      <c r="D9" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57" t="n">
+        <v>20200</v>
+      </c>
+      <c r="H9" s="55" t="n">
+        <v>20200</v>
+      </c>
+      <c r="I9" s="49"/>
+      <c r="J9" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="58" t="n">
+        <v>45907</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="44" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="54" t="n">
+        <v>745458044</v>
+      </c>
+      <c r="D10" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E10" s="59" t="n">
+        <v>22</v>
+      </c>
+      <c r="F10" s="60"/>
+      <c r="G10" s="57" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H10" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I10" s="49"/>
+      <c r="J10" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="58" t="n">
+        <v>45939</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="44" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="43" t="n">
+        <v>725371652</v>
+      </c>
+      <c r="D11" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E11" s="61"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="57" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="53"/>
+    </row>
+    <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="44" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="54" t="n">
+        <v>745203974</v>
+      </c>
+      <c r="D12" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E12" s="55"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="57" t="n">
+        <v>17000</v>
+      </c>
+      <c r="H12" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I12" s="49" t="n">
+        <v>3200</v>
+      </c>
+      <c r="J12" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="63" t="n">
+        <v>45815</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="44" t="n">
+        <v>8</v>
+      </c>
+      <c r="B13" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="54" t="n">
+        <v>702195722</v>
+      </c>
+      <c r="D13" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="57" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H13" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I13" s="49"/>
+      <c r="J13" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13" s="64" t="n">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="44" t="n">
+        <v>9</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="65" t="n">
+        <v>712854747</v>
+      </c>
+      <c r="D14" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="57" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H14" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I14" s="49"/>
+      <c r="J14" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="44" t="n">
+        <v>10</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="65" t="n">
+        <v>712854747</v>
+      </c>
+      <c r="D15" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="57" t="n">
+        <v>20000</v>
+      </c>
+      <c r="H15" s="55" t="n">
+        <v>20000</v>
+      </c>
+      <c r="I15" s="49"/>
+      <c r="J15" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="52"/>
+    </row>
+    <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="67" t="n">
+        <v>11</v>
+      </c>
+      <c r="B16" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="68" t="n">
+        <v>704071266</v>
+      </c>
+      <c r="D16" s="69" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E16" s="69"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="57" t="n">
+        <v>15200</v>
+      </c>
+      <c r="H16" s="69"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="70" t="s">
+        <v>51</v>
+      </c>
+      <c r="K16" s="64" t="n">
+        <v>45907</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="67" t="n">
+        <v>12</v>
+      </c>
+      <c r="B17" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="68" t="n">
+        <v>701270976</v>
+      </c>
+      <c r="D17" s="69" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E17" s="69"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="52" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="46" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="56" t="n">
-        <v>745458044</v>
-      </c>
-      <c r="D10" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E10" s="60" t="n">
-        <v>22</v>
-      </c>
-      <c r="F10" s="61"/>
-      <c r="G10" s="59" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H10" s="57"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="55"/>
-    </row>
-    <row r="11" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="46" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="45" t="n">
-        <v>725371652</v>
-      </c>
-      <c r="D11" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="59" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="55"/>
-    </row>
-    <row r="12" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="46" t="n">
-        <v>7</v>
-      </c>
-      <c r="B12" s="55" t="s">
+      <c r="K17" s="52"/>
+    </row>
+    <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="44" t="n">
+        <v>13</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="54" t="n">
+        <v>728078440</v>
+      </c>
+      <c r="D18" s="55" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="57" t="n">
+        <v>15200</v>
+      </c>
+      <c r="H18" s="55"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="K18" s="64" t="n">
+        <v>45876</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="67" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="67" t="n">
+        <v>790381810</v>
+      </c>
+      <c r="D19" s="72" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E19" s="67" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F19" s="67"/>
+      <c r="G19" s="73" t="n">
+        <v>15200</v>
+      </c>
+      <c r="H19" s="67"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="K19" s="64" t="n">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="75" t="n">
+        <v>15</v>
+      </c>
+      <c r="B20" s="76" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="67" t="n">
+        <v>790381810</v>
+      </c>
+      <c r="D20" s="77" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E20" s="77" t="n">
+        <v>15000</v>
+      </c>
+      <c r="F20" s="78"/>
+      <c r="G20" s="79" t="n">
+        <v>15200</v>
+      </c>
+      <c r="H20" s="77"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="74" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="64" t="n">
+        <v>45754</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="44" t="n">
+        <v>16</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="54" t="n">
+        <v>707608598</v>
+      </c>
+      <c r="D21" s="55" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="55" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I21" s="49"/>
+      <c r="J21" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21" s="52"/>
+    </row>
+    <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="44" t="n">
+        <v>17</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="68" t="n">
+        <v>707608598</v>
+      </c>
+      <c r="D22" s="55" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="71" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22" s="52"/>
+    </row>
+    <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="44" t="n">
         <v>18</v>
       </c>
-      <c r="C12" s="56" t="n">
-        <v>745203974</v>
-      </c>
-      <c r="D12" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="59" t="n">
-        <v>17000</v>
-      </c>
-      <c r="H12" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="I12" s="51" t="n">
-        <v>3200</v>
-      </c>
-      <c r="J12" s="55" t="s">
-        <v>45</v>
-      </c>
-      <c r="K12" s="64" t="n">
-        <v>45815</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="46" t="n">
-        <v>8</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="56" t="n">
-        <v>702195722</v>
-      </c>
-      <c r="D13" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
-      <c r="G13" s="59" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H13" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="I13" s="51"/>
-      <c r="J13" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="K13" s="65" t="n">
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="66" t="n">
-        <v>712854747</v>
-      </c>
-      <c r="D14" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H14" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="I14" s="51"/>
-      <c r="J14" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="K14" s="54"/>
-    </row>
-    <row r="15" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="46" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="66" t="n">
-        <v>712854747</v>
-      </c>
-      <c r="D15" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="59" t="n">
-        <v>20000</v>
-      </c>
-      <c r="H15" s="57" t="n">
-        <v>20000</v>
-      </c>
-      <c r="I15" s="51"/>
-      <c r="J15" s="67" t="s">
-        <v>47</v>
-      </c>
-      <c r="K15" s="54"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="68" t="n">
-        <v>11</v>
-      </c>
-      <c r="B16" s="67" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="69" t="n">
-        <v>704071266</v>
-      </c>
-      <c r="D16" s="70" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E16" s="70"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="59" t="n">
-        <v>15200</v>
-      </c>
-      <c r="H16" s="70"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="65" t="n">
-        <v>45907</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="68" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" s="67" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="69" t="n">
-        <v>701270976</v>
-      </c>
-      <c r="D17" s="70" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E17" s="70"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="54" t="s">
-        <v>44</v>
-      </c>
-      <c r="K17" s="54"/>
-    </row>
-    <row r="18" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="46" t="n">
-        <v>13</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="56" t="n">
-        <v>728078440</v>
-      </c>
-      <c r="D18" s="57" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E18" s="57"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="59" t="n">
-        <v>15200</v>
-      </c>
-      <c r="H18" s="57"/>
-      <c r="I18" s="51"/>
-      <c r="J18" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="K18" s="65" t="n">
-        <v>45876</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="68" t="n">
-        <v>14</v>
-      </c>
-      <c r="B19" s="67" t="s">
-        <v>30</v>
-      </c>
-      <c r="C19" s="68" t="n">
-        <v>790381810</v>
-      </c>
-      <c r="D19" s="73" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E19" s="68" t="n">
-        <v>15000</v>
-      </c>
-      <c r="F19" s="68"/>
-      <c r="G19" s="74" t="n">
-        <v>15200</v>
-      </c>
-      <c r="H19" s="68"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" s="65" t="n">
-        <v>45754</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="76" t="n">
-        <v>15</v>
-      </c>
-      <c r="B20" s="77" t="s">
-        <v>30</v>
-      </c>
-      <c r="C20" s="68" t="n">
-        <v>790381810</v>
-      </c>
-      <c r="D20" s="78" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E20" s="78" t="n">
-        <v>15000</v>
-      </c>
-      <c r="F20" s="79"/>
-      <c r="G20" s="80" t="n">
-        <v>15200</v>
-      </c>
-      <c r="H20" s="78"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" s="65" t="n">
-        <v>45754</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="46" t="n">
-        <v>16</v>
-      </c>
-      <c r="B21" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="56" t="n">
-        <v>707608598</v>
-      </c>
-      <c r="D21" s="57" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E21" s="57"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="57" t="n">
-        <v>15000</v>
-      </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="K21" s="54"/>
-    </row>
-    <row r="22" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="46" t="n">
-        <v>17</v>
-      </c>
-      <c r="B22" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="69" t="n">
-        <v>707608598</v>
-      </c>
-      <c r="D22" s="57" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E22" s="57"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="72" t="s">
-        <v>54</v>
-      </c>
-      <c r="K22" s="54"/>
-    </row>
-    <row r="23" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="46" t="n">
-        <v>18</v>
-      </c>
-      <c r="B23" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="45" t="n">
+      <c r="B23" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="43" t="n">
         <v>115169443</v>
       </c>
-      <c r="D23" s="82" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E23" s="82"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="59" t="n">
-        <v>15000</v>
-      </c>
-      <c r="H23" s="82" t="n">
-        <v>30000</v>
-      </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="72"/>
-      <c r="K23" s="54"/>
+      <c r="D23" s="81" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E23" s="81"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="57" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H23" s="81" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I23" s="49"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="52"/>
     </row>
     <row r="24" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="46" t="n">
+      <c r="A24" s="44" t="n">
         <v>19</v>
       </c>
-      <c r="B24" s="81" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="45" t="n">
+      <c r="B24" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="43" t="n">
         <v>115169443</v>
       </c>
-      <c r="D24" s="57" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E24" s="57"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="59" t="n">
-        <v>15000</v>
-      </c>
-      <c r="H24" s="57" t="n">
-        <v>30000</v>
-      </c>
-      <c r="I24" s="51"/>
-      <c r="J24" s="72"/>
-      <c r="K24" s="54"/>
+      <c r="D24" s="55" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="57" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H24" s="55" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I24" s="49"/>
+      <c r="J24" s="71"/>
+      <c r="K24" s="52"/>
     </row>
     <row r="25" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="46" t="n">
+      <c r="A25" s="44" t="n">
         <v>20</v>
       </c>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="56" t="n">
+      <c r="C25" s="54" t="n">
         <v>702756240</v>
       </c>
-      <c r="D25" s="57" t="n">
-        <v>15000</v>
-      </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="59" t="n">
-        <v>15000</v>
-      </c>
-      <c r="H25" s="57" t="n">
-        <v>15000</v>
-      </c>
-      <c r="I25" s="51"/>
-      <c r="J25" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="65" t="n">
+      <c r="D25" s="55" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="57" t="n">
+        <v>15000</v>
+      </c>
+      <c r="H25" s="55" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I25" s="49"/>
+      <c r="J25" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="64" t="n">
         <v>45845</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="46"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="69"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="82"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="51"/>
-      <c r="J26" s="72"/>
+      <c r="A26" s="44"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="68"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="71"/>
     </row>
     <row r="27" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="68"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="84" t="n">
+      <c r="A27" s="67"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="83" t="n">
         <f aca="false">SUM(G6:G26)</f>
-        <v>262800</v>
-      </c>
-      <c r="H27" s="70"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="85"/>
+        <v>283000</v>
+      </c>
+      <c r="H27" s="69"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="84"/>
     </row>
     <row r="28" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="68"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="69"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="86"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="67"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="69"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="85"/>
     </row>
     <row r="29" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="87"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="89"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="87"/>
+      <c r="H29" s="87"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="88"/>
     </row>
     <row r="30" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="90" t="n">
+      <c r="E30" s="89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="55"/>
+      <c r="C31" s="53"/>
     </row>
     <row r="32" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="91"/>
+      <c r="C32" s="90"/>
     </row>
     <row r="33" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="46"/>
-      <c r="C33" s="55"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="53"/>
     </row>
     <row r="34" customFormat="false" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="46"/>
-      <c r="C34" s="55"/>
-      <c r="F34" s="92"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="53"/>
+      <c r="F34" s="91"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="5">
